--- a/13PythonOpencv4/2官网教程/目录.xlsx
+++ b/13PythonOpencv4/2官网教程/目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>https://docs.opencv.org/4.x/d9/df8/tutorial_root.html</t>
   </si>
@@ -40,8 +40,17 @@
     <t>Transformations</t>
   </si>
   <si>
+    <t>Making your own linear filters</t>
+  </si>
+  <si>
     <t>Hough Line Transform
 霍夫直线变换</t>
+  </si>
+  <si>
+    <t>Histogramsz直方图</t>
+  </si>
+  <si>
+    <t>Histogram Equalization 直方图均衡化</t>
   </si>
 </sst>
 </file>
@@ -54,7 +63,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,20 +104,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF3D578C"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -544,46 +539,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,104 +593,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,9 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1059,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="40.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -1115,12 +1107,24 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="6"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/13PythonOpencv4/2官网教程/目录.xlsx
+++ b/13PythonOpencv4/2官网教程/目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>https://docs.opencv.org/4.x/d9/df8/tutorial_root.html</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Histogram Equalization 直方图均衡化</t>
+  </si>
+  <si>
+    <t>Histogram Calculation 直方图计算</t>
+  </si>
+  <si>
+    <t>Histogram Comparison 直方图的比较</t>
+  </si>
+  <si>
+    <t>Back Projection 背投影</t>
   </si>
 </sst>
 </file>
@@ -1051,13 +1060,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="40.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -1124,6 +1133,21 @@
       </c>
       <c r="C8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
